--- a/files/test3.xlsx
+++ b/files/test3.xlsx
@@ -19,7 +19,7 @@
     <t>Away team</t>
   </si>
   <si>
-    <t>Varberg</t>
+    <t>Halmstad</t>
   </si>
   <si>
     <t>Kungsbacka</t>
